--- a/Priority Effects - Github/Data/Cover/PE_Cover_Inner_Fall_2023_Cleaned.xlsx
+++ b/Priority Effects - Github/Data/Cover/PE_Cover_Inner_Fall_2023_Cleaned.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wynnekat/Priority-Effects/Priority Effects - Github/Data/Cover/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C24D5AE-FE81-4248-BD33-D800D028D062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$433</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$433</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -207,9 +217,6 @@
     <t>Poa pratensis</t>
   </si>
   <si>
-    <t>PHLARU</t>
-  </si>
-  <si>
     <t>Phalaris arundinacea</t>
   </si>
   <si>
@@ -433,46 +440,56 @@
   </si>
   <si>
     <t>Verbena urticifolia</t>
+  </si>
+  <si>
+    <t>PHAARU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -480,7 +497,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -490,44 +507,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -717,29 +735,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="13.13"/>
-    <col customWidth="1" min="5" max="5" width="19.63"/>
-    <col customWidth="1" min="6" max="6" width="10.0"/>
-    <col customWidth="1" min="7" max="7" width="26.63"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,9 +783,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
@@ -773,15 +794,15 @@
         <v>8</v>
       </c>
       <c r="D2" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -790,15 +811,15 @@
         <v>10</v>
       </c>
       <c r="D3" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -807,15 +828,15 @@
         <v>12</v>
       </c>
       <c r="D4" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -824,15 +845,15 @@
         <v>14</v>
       </c>
       <c r="D5" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -841,15 +862,15 @@
         <v>16</v>
       </c>
       <c r="D6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
@@ -858,15 +879,15 @@
         <v>18</v>
       </c>
       <c r="D7" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -875,7 +896,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>21</v>
@@ -884,9 +905,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -895,15 +916,15 @@
         <v>23</v>
       </c>
       <c r="D9" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -912,15 +933,15 @@
         <v>25</v>
       </c>
       <c r="D10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -929,15 +950,15 @@
         <v>27</v>
       </c>
       <c r="D11" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>7</v>
@@ -946,15 +967,15 @@
         <v>29</v>
       </c>
       <c r="D12" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
@@ -963,15 +984,15 @@
         <v>31</v>
       </c>
       <c r="D13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -980,15 +1001,15 @@
         <v>33</v>
       </c>
       <c r="D14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>7</v>
@@ -997,15 +1018,15 @@
         <v>35</v>
       </c>
       <c r="D15" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -1014,15 +1035,15 @@
         <v>37</v>
       </c>
       <c r="D16" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
@@ -1031,15 +1052,15 @@
         <v>8</v>
       </c>
       <c r="D17" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>39</v>
@@ -1048,15 +1069,15 @@
         <v>27</v>
       </c>
       <c r="D18" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>39</v>
@@ -1065,15 +1086,15 @@
         <v>31</v>
       </c>
       <c r="D19" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>39</v>
@@ -1082,15 +1103,15 @@
         <v>40</v>
       </c>
       <c r="D20" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>39</v>
@@ -1099,15 +1120,15 @@
         <v>42</v>
       </c>
       <c r="D21" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>39</v>
@@ -1116,15 +1137,15 @@
         <v>44</v>
       </c>
       <c r="D22" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>39</v>
@@ -1133,15 +1154,15 @@
         <v>46</v>
       </c>
       <c r="D23" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>39</v>
@@ -1150,15 +1171,15 @@
         <v>10</v>
       </c>
       <c r="D24" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>39</v>
@@ -1167,15 +1188,15 @@
         <v>48</v>
       </c>
       <c r="D25" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
@@ -1184,15 +1205,15 @@
         <v>33</v>
       </c>
       <c r="D26" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -1201,15 +1222,15 @@
         <v>50</v>
       </c>
       <c r="D27" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>39</v>
@@ -1218,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="D28" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
@@ -1227,9 +1248,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>39</v>
@@ -1238,15 +1259,15 @@
         <v>12</v>
       </c>
       <c r="D29" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>39</v>
@@ -1255,15 +1276,15 @@
         <v>52</v>
       </c>
       <c r="D30" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>39</v>
@@ -1272,15 +1293,15 @@
         <v>54</v>
       </c>
       <c r="D31" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>39</v>
@@ -1289,15 +1310,15 @@
         <v>29</v>
       </c>
       <c r="D32" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>39</v>
@@ -1306,15 +1327,15 @@
         <v>56</v>
       </c>
       <c r="D33" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>39</v>
@@ -1323,15 +1344,15 @@
         <v>18</v>
       </c>
       <c r="D34" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>39</v>
@@ -1340,15 +1361,15 @@
         <v>16</v>
       </c>
       <c r="D35" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>39</v>
@@ -1357,15 +1378,15 @@
         <v>35</v>
       </c>
       <c r="D36" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>39</v>
@@ -1380,9 +1401,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>39</v>
@@ -1391,15 +1412,15 @@
         <v>60</v>
       </c>
       <c r="D38" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>39</v>
@@ -1408,15 +1429,15 @@
         <v>62</v>
       </c>
       <c r="D39" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>39</v>
@@ -1425,228 +1446,228 @@
         <v>37</v>
       </c>
       <c r="D40" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E41" s="4" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>6</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E46" s="4" t="s">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="4">
+        <v>6</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="4">
+        <v>3</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48">
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D52" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>21</v>
@@ -1655,12 +1676,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>58</v>
@@ -1672,188 +1693,188 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D55" s="4">
         <v>0.5</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D58" s="4">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D59" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D60" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5</v>
+      </c>
+      <c r="E61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62">
+    </row>
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="4">
+        <v>14</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D62" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63">
+    </row>
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D63" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D64" s="4">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D65" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>21</v>
@@ -1862,182 +1883,182 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D66" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="4">
         <v>0.5</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
+        <v>6</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" s="4">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E69" s="4" t="s">
+    </row>
+    <row r="70" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="4">
+        <v>6</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" s="4">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="4">
+        <v>6</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D70" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E70" s="4" t="s">
+      <c r="D71" s="4">
+        <v>3</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="4">
+        <v>6</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="4">
+        <v>12</v>
+      </c>
+      <c r="E73" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D73" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="E73" s="5" t="s">
+    </row>
+    <row r="74" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" s="4">
+        <v>6</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="4" t="s">
+      <c r="D74" s="4">
+        <v>2</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75">
+    </row>
+    <row r="75" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D75" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>58</v>
@@ -2049,35 +2070,35 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D77" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>21</v>
@@ -2086,242 +2107,242 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D79" s="4">
+        <v>1</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="80">
+    </row>
+    <row r="80" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="4">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E80" s="4" t="s">
+      <c r="G80" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G80" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="81">
+    </row>
+    <row r="81" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D81" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D82" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D84" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" s="4">
+        <v>5</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D86" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D88" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D89" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="4">
         <v>0.5</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D91" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D92" s="4">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>21</v>
@@ -2330,60 +2351,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D93" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C94" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D95" s="4">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>39</v>
@@ -2392,15 +2413,15 @@
         <v>29</v>
       </c>
       <c r="D96" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>39</v>
@@ -2409,15 +2430,15 @@
         <v>27</v>
       </c>
       <c r="D97" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>39</v>
@@ -2426,15 +2447,15 @@
         <v>48</v>
       </c>
       <c r="D98" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>39</v>
@@ -2443,15 +2464,15 @@
         <v>42</v>
       </c>
       <c r="D99" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>39</v>
@@ -2466,9 +2487,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>39</v>
@@ -2477,32 +2498,32 @@
         <v>35</v>
       </c>
       <c r="D101" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D102" s="4">
+        <v>16</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D102" s="4">
-        <v>16.0</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103">
+    </row>
+    <row r="103" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>39</v>
@@ -2511,7 +2532,7 @@
         <v>20</v>
       </c>
       <c r="D103" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>21</v>
@@ -2520,9 +2541,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>39</v>
@@ -2531,15 +2552,15 @@
         <v>31</v>
       </c>
       <c r="D104" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>39</v>
@@ -2548,32 +2569,32 @@
         <v>52</v>
       </c>
       <c r="D105" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D106" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107">
+    </row>
+    <row r="107" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>39</v>
@@ -2582,15 +2603,15 @@
         <v>37</v>
       </c>
       <c r="D107" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>39</v>
@@ -2599,15 +2620,15 @@
         <v>8</v>
       </c>
       <c r="D108" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>39</v>
@@ -2616,15 +2637,15 @@
         <v>46</v>
       </c>
       <c r="D109" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>39</v>
@@ -2633,15 +2654,15 @@
         <v>10</v>
       </c>
       <c r="D110" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>39</v>
@@ -2650,15 +2671,15 @@
         <v>23</v>
       </c>
       <c r="D111" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>7</v>
@@ -2667,32 +2688,32 @@
         <v>8</v>
       </c>
       <c r="D112" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D113" s="4">
+        <v>13</v>
+      </c>
+      <c r="E113" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D113" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="114">
+    </row>
+    <row r="114" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>7</v>
@@ -2701,15 +2722,15 @@
         <v>29</v>
       </c>
       <c r="D114" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>7</v>
@@ -2718,15 +2739,15 @@
         <v>42</v>
       </c>
       <c r="D115" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>7</v>
@@ -2735,15 +2756,15 @@
         <v>18</v>
       </c>
       <c r="D116" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>7</v>
@@ -2752,15 +2773,15 @@
         <v>12</v>
       </c>
       <c r="D117" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>7</v>
@@ -2769,15 +2790,15 @@
         <v>46</v>
       </c>
       <c r="D118" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>7</v>
@@ -2786,15 +2807,15 @@
         <v>31</v>
       </c>
       <c r="D119" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>7</v>
@@ -2803,32 +2824,32 @@
         <v>62</v>
       </c>
       <c r="D120" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D121" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="122">
+    </row>
+    <row r="122" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>7</v>
@@ -2837,15 +2858,15 @@
         <v>35</v>
       </c>
       <c r="D122" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>7</v>
@@ -2854,15 +2875,15 @@
         <v>10</v>
       </c>
       <c r="D123" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>7</v>
@@ -2871,7 +2892,7 @@
         <v>20</v>
       </c>
       <c r="D124" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>21</v>
@@ -2880,9 +2901,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>7</v>
@@ -2891,15 +2912,15 @@
         <v>56</v>
       </c>
       <c r="D125" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>7</v>
@@ -2908,15 +2929,15 @@
         <v>54</v>
       </c>
       <c r="D126" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>7</v>
@@ -2925,41 +2946,41 @@
         <v>37</v>
       </c>
       <c r="D127" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D129" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>21</v>
@@ -2968,205 +2989,205 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D130" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D131" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D132" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D133" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C134" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D134" s="4">
+        <v>2</v>
+      </c>
+      <c r="E134" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D134" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="135">
+    </row>
+    <row r="135" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D136" s="4">
         <v>0.5</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D137" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C138" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" s="4">
+        <v>2</v>
+      </c>
+      <c r="E138" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D138" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="139">
+    </row>
+    <row r="139" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C139" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D139" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E139" s="4" t="s">
+    </row>
+    <row r="140" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A140" s="4">
+        <v>5</v>
+      </c>
+      <c r="B140" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D140" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>21</v>
@@ -3175,157 +3196,157 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D143" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D145" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D146" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C147" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" s="4">
+        <v>4</v>
+      </c>
+      <c r="E147" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D147" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="E147" s="4" t="s">
+      <c r="G147" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G147" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="148">
+    </row>
+    <row r="148" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D148" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>21</v>
@@ -3334,12 +3355,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>58</v>
@@ -3351,140 +3372,140 @@
         <v>59</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D152" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="4">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D154" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D155" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="D156" s="4">
+        <v>4</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D156" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157">
+    </row>
+    <row r="157" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D157" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D158" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D159" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>21</v>
@@ -3493,145 +3514,145 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C160" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D160" s="4">
+        <v>2</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D160" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="161">
+    </row>
+    <row r="161" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D161" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D162" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E162" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C163" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D163" s="4">
+        <v>3</v>
+      </c>
+      <c r="E163" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D163" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="164">
+    </row>
+    <row r="164" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D164" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C165" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+      <c r="E165" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D165" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E165" s="4" t="s">
+    </row>
+    <row r="166" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A166" s="4">
+        <v>4</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D166" s="4">
+        <v>1</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A167" s="4">
+        <v>4</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D166" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C167" s="4" t="s">
+      <c r="D167" s="4">
+        <v>1</v>
+      </c>
+      <c r="E167" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D167" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="168">
+    </row>
+    <row r="168" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>39</v>
@@ -3640,32 +3661,32 @@
         <v>8</v>
       </c>
       <c r="D168" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C169" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D169" s="4">
+        <v>6</v>
+      </c>
+      <c r="E169" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D169" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="170">
+    </row>
+    <row r="170" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>39</v>
@@ -3674,32 +3695,32 @@
         <v>31</v>
       </c>
       <c r="D170" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C171" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D171" s="4">
+        <v>1</v>
+      </c>
+      <c r="E171" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D171" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="172">
+    </row>
+    <row r="172" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>39</v>
@@ -3708,15 +3729,15 @@
         <v>16</v>
       </c>
       <c r="D172" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>39</v>
@@ -3725,15 +3746,15 @@
         <v>35</v>
       </c>
       <c r="D173" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>39</v>
@@ -3742,15 +3763,15 @@
         <v>54</v>
       </c>
       <c r="D174" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>39</v>
@@ -3759,15 +3780,15 @@
         <v>46</v>
       </c>
       <c r="D175" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>39</v>
@@ -3776,15 +3797,15 @@
         <v>29</v>
       </c>
       <c r="D176" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>39</v>
@@ -3793,15 +3814,15 @@
         <v>18</v>
       </c>
       <c r="D177" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E177" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>39</v>
@@ -3810,32 +3831,32 @@
         <v>50</v>
       </c>
       <c r="D178" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D179" s="4">
         <v>0.5</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>39</v>
@@ -3844,15 +3865,15 @@
         <v>37</v>
       </c>
       <c r="D180" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="E180" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>39</v>
@@ -3861,32 +3882,32 @@
         <v>10</v>
       </c>
       <c r="D181" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C182" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D182" s="4">
+        <v>19</v>
+      </c>
+      <c r="E182" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D182" s="4">
-        <v>19.0</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="183">
+    </row>
+    <row r="183" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>39</v>
@@ -3895,7 +3916,7 @@
         <v>20</v>
       </c>
       <c r="D183" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>21</v>
@@ -3904,9 +3925,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>39</v>
@@ -3915,15 +3936,15 @@
         <v>52</v>
       </c>
       <c r="D184" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>39</v>
@@ -3932,32 +3953,32 @@
         <v>27</v>
       </c>
       <c r="D185" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C186" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" s="4">
+        <v>1</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D186" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="187">
+    </row>
+    <row r="187" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>7</v>
@@ -3966,15 +3987,15 @@
         <v>27</v>
       </c>
       <c r="D187" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>7</v>
@@ -3983,32 +4004,32 @@
         <v>10</v>
       </c>
       <c r="D188" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C189" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D189" s="4">
+        <v>2</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D189" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="190">
+    </row>
+    <row r="190" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>7</v>
@@ -4017,15 +4038,15 @@
         <v>16</v>
       </c>
       <c r="D190" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>7</v>
@@ -4034,15 +4055,15 @@
         <v>12</v>
       </c>
       <c r="D191" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>7</v>
@@ -4051,15 +4072,15 @@
         <v>8</v>
       </c>
       <c r="D192" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>7</v>
@@ -4068,15 +4089,15 @@
         <v>29</v>
       </c>
       <c r="D193" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>7</v>
@@ -4085,7 +4106,7 @@
         <v>20</v>
       </c>
       <c r="D194" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>21</v>
@@ -4094,26 +4115,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C195" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D195" s="4">
+        <v>3</v>
+      </c>
+      <c r="E195" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D195" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="196">
+    </row>
+    <row r="196" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>7</v>
@@ -4122,15 +4143,15 @@
         <v>35</v>
       </c>
       <c r="D196" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>7</v>
@@ -4139,49 +4160,49 @@
         <v>46</v>
       </c>
       <c r="D197" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E197" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C198" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="4">
+        <v>9</v>
+      </c>
+      <c r="E198" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D198" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="E198" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="199">
+    </row>
+    <row r="199" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C199" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D199" s="4">
+        <v>8</v>
+      </c>
+      <c r="E199" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D199" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="E199" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="200">
+    </row>
+    <row r="200" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>7</v>
@@ -4190,15 +4211,15 @@
         <v>25</v>
       </c>
       <c r="D200" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>7</v>
@@ -4207,143 +4228,143 @@
         <v>37</v>
       </c>
       <c r="D201" s="4">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D202" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C203" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D203" s="4">
+        <v>23</v>
+      </c>
+      <c r="E203" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D203" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="E203" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="204">
+    </row>
+    <row r="204" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D204" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C205" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D205" s="4">
+        <v>1</v>
+      </c>
+      <c r="E205" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D205" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="206">
+    </row>
+    <row r="206" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C206" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D206" s="4">
+        <v>5</v>
+      </c>
+      <c r="E206" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D206" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="207">
+    </row>
+    <row r="207" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D207" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D208" s="4">
+        <v>12</v>
+      </c>
+      <c r="E208" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D208" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="209">
+    </row>
+    <row r="209" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D209" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>21</v>
@@ -4352,205 +4373,205 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D210" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C211" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D211" s="4">
+        <v>1</v>
+      </c>
+      <c r="E211" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D211" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="212">
+    </row>
+    <row r="212" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D212" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D213" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D214" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D215" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D216" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E216" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C217" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D217" s="4">
+        <v>2</v>
+      </c>
+      <c r="E217" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D217" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="218">
+    </row>
+    <row r="218" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D218" s="4">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="E218" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D219" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E219" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D220" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E220" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D221" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E221" s="4" t="s">
         <v>21</v>
@@ -4559,179 +4580,179 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D222" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D223" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D224" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="E224" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D225" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D226" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B227" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="D227" s="4">
+        <v>2</v>
+      </c>
+      <c r="E227" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D227" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="228">
+    </row>
+    <row r="228" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D228" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="E228" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D229" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D230" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E230" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D231" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B232" s="4" t="s">
         <v>7</v>
@@ -4740,15 +4761,15 @@
         <v>8</v>
       </c>
       <c r="D232" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B233" s="4" t="s">
         <v>7</v>
@@ -4757,15 +4778,15 @@
         <v>29</v>
       </c>
       <c r="D233" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B234" s="4" t="s">
         <v>7</v>
@@ -4774,15 +4795,15 @@
         <v>16</v>
       </c>
       <c r="D234" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B235" s="4" t="s">
         <v>7</v>
@@ -4791,15 +4812,15 @@
         <v>46</v>
       </c>
       <c r="D235" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E235" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B236" s="4" t="s">
         <v>7</v>
@@ -4808,15 +4829,15 @@
         <v>35</v>
       </c>
       <c r="D236" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E236" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B237" s="4" t="s">
         <v>7</v>
@@ -4825,15 +4846,15 @@
         <v>10</v>
       </c>
       <c r="D237" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>7</v>
@@ -4842,15 +4863,15 @@
         <v>27</v>
       </c>
       <c r="D238" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>7</v>
@@ -4859,7 +4880,7 @@
         <v>20</v>
       </c>
       <c r="D239" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>21</v>
@@ -4868,9 +4889,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>7</v>
@@ -4879,15 +4900,15 @@
         <v>48</v>
       </c>
       <c r="D240" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E240" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>7</v>
@@ -4896,32 +4917,32 @@
         <v>37</v>
       </c>
       <c r="D241" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C242" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D242" s="4">
+        <v>20</v>
+      </c>
+      <c r="E242" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D242" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="243">
+    </row>
+    <row r="243" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>7</v>
@@ -4930,32 +4951,32 @@
         <v>44</v>
       </c>
       <c r="D243" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B244" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C244" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D244" s="4">
+        <v>2</v>
+      </c>
+      <c r="E244" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D244" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="245">
+    </row>
+    <row r="245" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B245" s="4" t="s">
         <v>39</v>
@@ -4964,32 +4985,32 @@
         <v>27</v>
       </c>
       <c r="D245" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B246" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C246" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D246" s="4">
+        <v>1</v>
+      </c>
+      <c r="E246" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D246" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="247">
+    </row>
+    <row r="247" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B247" s="4" t="s">
         <v>39</v>
@@ -4998,15 +5019,15 @@
         <v>29</v>
       </c>
       <c r="D247" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B248" s="4" t="s">
         <v>39</v>
@@ -5015,32 +5036,32 @@
         <v>18</v>
       </c>
       <c r="D248" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B249" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D249" s="4">
         <v>0.5</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B250" s="4" t="s">
         <v>39</v>
@@ -5049,15 +5070,15 @@
         <v>16</v>
       </c>
       <c r="D250" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B251" s="4" t="s">
         <v>39</v>
@@ -5066,15 +5087,15 @@
         <v>52</v>
       </c>
       <c r="D251" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B252" s="4" t="s">
         <v>39</v>
@@ -5083,15 +5104,15 @@
         <v>46</v>
       </c>
       <c r="D252" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B253" s="4" t="s">
         <v>39</v>
@@ -5100,15 +5121,15 @@
         <v>10</v>
       </c>
       <c r="D253" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>39</v>
@@ -5117,15 +5138,15 @@
         <v>54</v>
       </c>
       <c r="D254" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>39</v>
@@ -5140,9 +5161,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>39</v>
@@ -5151,15 +5172,15 @@
         <v>35</v>
       </c>
       <c r="D256" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>39</v>
@@ -5168,15 +5189,15 @@
         <v>31</v>
       </c>
       <c r="D257" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>39</v>
@@ -5185,7 +5206,7 @@
         <v>20</v>
       </c>
       <c r="D258" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>21</v>
@@ -5194,60 +5215,60 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C259" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D259" s="4">
+        <v>3</v>
+      </c>
+      <c r="E259" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D259" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E259" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="260">
+    </row>
+    <row r="260" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B260" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C260" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D260" s="4">
+        <v>3</v>
+      </c>
+      <c r="E260" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D260" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E260" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="261">
+    </row>
+    <row r="261" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B261" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C261" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D261" s="4">
+        <v>1</v>
+      </c>
+      <c r="E261" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D261" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E261" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="262">
+    </row>
+    <row r="262" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>39</v>
@@ -5256,41 +5277,41 @@
         <v>37</v>
       </c>
       <c r="D262" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D264" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>21</v>
@@ -5299,307 +5320,307 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C265" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" s="4">
+        <v>1</v>
+      </c>
+      <c r="E265" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D265" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="266">
+    </row>
+    <row r="266" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D266" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D267" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C268" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D268" s="4">
+        <v>2</v>
+      </c>
+      <c r="E268" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D268" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="269">
+    </row>
+    <row r="269" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C269" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D269" s="4">
+        <v>1</v>
+      </c>
+      <c r="E269" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D269" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="270">
+    </row>
+    <row r="270" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D270" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D271" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D272" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D273" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D275" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C276" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D276" s="4">
+        <v>4</v>
+      </c>
+      <c r="E276" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D276" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="277">
+    </row>
+    <row r="277" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D277" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D278" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C279" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" s="4">
+        <v>2</v>
+      </c>
+      <c r="E279" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D279" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E279" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="280">
+    </row>
+    <row r="280" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D280" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D281" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D282" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>21</v>
@@ -5608,26 +5629,26 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C283" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D283" s="4">
+        <v>1</v>
+      </c>
+      <c r="E283" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D283" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="284">
+    </row>
+    <row r="284" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B284" s="4" t="s">
         <v>39</v>
@@ -5636,15 +5657,15 @@
         <v>29</v>
       </c>
       <c r="D284" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>39</v>
@@ -5653,15 +5674,15 @@
         <v>10</v>
       </c>
       <c r="D285" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>39</v>
@@ -5676,60 +5697,60 @@
         <v>59</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C287" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D287" s="4">
+        <v>1</v>
+      </c>
+      <c r="E287" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D287" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E287" s="4" t="s">
+    </row>
+    <row r="288" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A288" s="4">
+        <v>2</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C288" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C288" s="4" t="s">
+      <c r="D288" s="4">
+        <v>6</v>
+      </c>
+      <c r="E288" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D288" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E288" s="4" t="s">
+    </row>
+    <row r="289" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A289" s="4">
+        <v>2</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C289" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C289" s="4" t="s">
+      <c r="D289" s="4">
+        <v>8</v>
+      </c>
+      <c r="E289" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D289" s="4">
-        <v>8.0</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="290">
+    </row>
+    <row r="290" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>39</v>
@@ -5738,15 +5759,15 @@
         <v>35</v>
       </c>
       <c r="D290" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>39</v>
@@ -5755,15 +5776,15 @@
         <v>27</v>
       </c>
       <c r="D291" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>39</v>
@@ -5772,15 +5793,15 @@
         <v>46</v>
       </c>
       <c r="D292" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>39</v>
@@ -5789,15 +5810,15 @@
         <v>18</v>
       </c>
       <c r="D293" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>39</v>
@@ -5806,7 +5827,7 @@
         <v>20</v>
       </c>
       <c r="D294" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>21</v>
@@ -5815,9 +5836,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>39</v>
@@ -5826,32 +5847,32 @@
         <v>54</v>
       </c>
       <c r="D295" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C296" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D296" s="4">
+        <v>2</v>
+      </c>
+      <c r="E296" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D296" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="297">
+    </row>
+    <row r="297" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>39</v>
@@ -5860,15 +5881,15 @@
         <v>60</v>
       </c>
       <c r="D297" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B298" s="4" t="s">
         <v>39</v>
@@ -5877,15 +5898,15 @@
         <v>37</v>
       </c>
       <c r="D298" s="4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B299" s="4" t="s">
         <v>39</v>
@@ -5894,15 +5915,15 @@
         <v>56</v>
       </c>
       <c r="D299" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B300" s="4" t="s">
         <v>39</v>
@@ -5911,15 +5932,15 @@
         <v>44</v>
       </c>
       <c r="D300" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>39</v>
@@ -5928,32 +5949,32 @@
         <v>42</v>
       </c>
       <c r="D301" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C302" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D302" s="4">
+        <v>1</v>
+      </c>
+      <c r="E302" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D302" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="303">
+    </row>
+    <row r="303" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B303" s="4" t="s">
         <v>39</v>
@@ -5962,32 +5983,32 @@
         <v>31</v>
       </c>
       <c r="D303" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B304" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C304" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D304" s="4">
+        <v>1</v>
+      </c>
+      <c r="E304" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D304" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="305">
+    </row>
+    <row r="305" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B305" s="4" t="s">
         <v>39</v>
@@ -5996,58 +6017,58 @@
         <v>16</v>
       </c>
       <c r="D305" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D306" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D307" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D308" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>21</v>
@@ -6056,222 +6077,222 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D309" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D311" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D312" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E312" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D313" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D314" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D315" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C316" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D316" s="4">
+        <v>1</v>
+      </c>
+      <c r="E316" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D316" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E316" s="4" t="s">
+    </row>
+    <row r="317" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A317" s="4">
+        <v>2</v>
+      </c>
+      <c r="B317" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D317" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C319" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D319" s="4">
+        <v>1</v>
+      </c>
+      <c r="E319" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D319" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E319" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="320">
+    </row>
+    <row r="320" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D320" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D321" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E321" s="4" t="s">
         <v>21</v>
@@ -6280,247 +6301,247 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D322" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E322" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C323" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D323" s="4">
+        <v>2</v>
+      </c>
+      <c r="E323" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D323" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E323" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="324">
+    </row>
+    <row r="324" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C324" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D324" s="4">
+        <v>2</v>
+      </c>
+      <c r="E324" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D324" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E324" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="325">
+    </row>
+    <row r="325" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D325" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="E325" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D326" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E326" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D327" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E327" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C328" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D328" s="4">
+        <v>1</v>
+      </c>
+      <c r="E328" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D328" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E328" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="329">
+    </row>
+    <row r="329" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D329" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D330" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E330" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D331" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E331" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D332" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E332" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D333" s="4">
         <v>0.5</v>
       </c>
       <c r="E333" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="334">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C334" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D334" s="4">
+        <v>1</v>
+      </c>
+      <c r="E334" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D334" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E334" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="335">
+    </row>
+    <row r="335" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D335" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="E335" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>7</v>
@@ -6529,15 +6550,15 @@
         <v>8</v>
       </c>
       <c r="D336" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="E336" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>7</v>
@@ -6546,7 +6567,7 @@
         <v>20</v>
       </c>
       <c r="D337" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>21</v>
@@ -6555,9 +6576,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B338" s="4" t="s">
         <v>7</v>
@@ -6566,15 +6587,15 @@
         <v>46</v>
       </c>
       <c r="D338" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E338" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>7</v>
@@ -6583,15 +6604,15 @@
         <v>29</v>
       </c>
       <c r="D339" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E339" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B340" s="4" t="s">
         <v>7</v>
@@ -6600,15 +6621,15 @@
         <v>35</v>
       </c>
       <c r="D340" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="E340" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B341" s="4" t="s">
         <v>7</v>
@@ -6617,15 +6638,15 @@
         <v>10</v>
       </c>
       <c r="D341" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E341" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B342" s="4" t="s">
         <v>7</v>
@@ -6634,32 +6655,32 @@
         <v>48</v>
       </c>
       <c r="D342" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E342" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B343" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C343" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D343" s="4">
+        <v>1</v>
+      </c>
+      <c r="E343" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D343" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="344">
+    </row>
+    <row r="344" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B344" s="4" t="s">
         <v>7</v>
@@ -6674,9 +6695,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>7</v>
@@ -6685,15 +6706,15 @@
         <v>37</v>
       </c>
       <c r="D345" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B346" s="4" t="s">
         <v>7</v>
@@ -6702,15 +6723,15 @@
         <v>27</v>
       </c>
       <c r="D346" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B347" s="4" t="s">
         <v>7</v>
@@ -6719,15 +6740,15 @@
         <v>54</v>
       </c>
       <c r="D347" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E347" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>7</v>
@@ -6736,52 +6757,52 @@
         <v>52</v>
       </c>
       <c r="D348" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E348" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D349" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E349" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D350" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E350" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>50</v>
@@ -6793,69 +6814,69 @@
         <v>51</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D352" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E352" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C353" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D353" s="4">
+        <v>1</v>
+      </c>
+      <c r="E353" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D353" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E353" s="4" t="s">
+    </row>
+    <row r="354" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A354" s="4">
+        <v>2</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D354" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="E354" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D355" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="E355" s="4" t="s">
         <v>21</v>
@@ -6864,69 +6885,69 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D356" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E356" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D357" s="4">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="E357" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D358" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E358" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D359" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="E359" s="4" t="s">
         <v>21</v>
@@ -6935,179 +6956,179 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C360" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D360" s="4">
+        <v>6</v>
+      </c>
+      <c r="E360" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D360" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E360" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="361">
+    </row>
+    <row r="361" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C361" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D361" s="4">
+        <v>1</v>
+      </c>
+      <c r="E361" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D361" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="362">
+    </row>
+    <row r="362" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D362" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E362" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D363" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E363" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C364" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D364" s="4">
+        <v>1</v>
+      </c>
+      <c r="E364" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D364" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E364" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="365">
+    </row>
+    <row r="365" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D365" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E365" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D366" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E366" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="367">
+    <row r="367" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C367" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D367" s="4">
+        <v>3</v>
+      </c>
+      <c r="E367" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D367" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E367" s="4" t="s">
+    </row>
+    <row r="368" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A368" s="4">
+        <v>1</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C368" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C368" s="4" t="s">
+      <c r="D368" s="4">
+        <v>7</v>
+      </c>
+      <c r="E368" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D368" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="E368" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="369">
+    </row>
+    <row r="369" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D369" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="E369" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B370" s="4" t="s">
         <v>39</v>
@@ -7116,15 +7137,15 @@
         <v>44</v>
       </c>
       <c r="D370" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="E370" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B371" s="4" t="s">
         <v>39</v>
@@ -7133,15 +7154,15 @@
         <v>60</v>
       </c>
       <c r="D371" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E371" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B372" s="4" t="s">
         <v>39</v>
@@ -7150,15 +7171,15 @@
         <v>62</v>
       </c>
       <c r="D372" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E372" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B373" s="4" t="s">
         <v>39</v>
@@ -7167,15 +7188,15 @@
         <v>8</v>
       </c>
       <c r="D373" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E373" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B374" s="4" t="s">
         <v>39</v>
@@ -7184,32 +7205,32 @@
         <v>35</v>
       </c>
       <c r="D374" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E374" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B375" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C375" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D375" s="4">
+        <v>15</v>
+      </c>
+      <c r="E375" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D375" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="E375" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="376">
+    </row>
+    <row r="376" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B376" s="4" t="s">
         <v>39</v>
@@ -7218,15 +7239,15 @@
         <v>29</v>
       </c>
       <c r="D376" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E376" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B377" s="4" t="s">
         <v>39</v>
@@ -7235,32 +7256,32 @@
         <v>52</v>
       </c>
       <c r="D377" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E377" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B378" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D378" s="4">
         <v>0.5</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="379">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B379" s="4" t="s">
         <v>39</v>
@@ -7269,15 +7290,15 @@
         <v>37</v>
       </c>
       <c r="D379" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="E379" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B380" s="4" t="s">
         <v>39</v>
@@ -7286,15 +7307,15 @@
         <v>10</v>
       </c>
       <c r="D380" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="E380" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B381" s="4" t="s">
         <v>39</v>
@@ -7303,15 +7324,15 @@
         <v>48</v>
       </c>
       <c r="D381" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E381" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B382" s="4" t="s">
         <v>39</v>
@@ -7320,15 +7341,15 @@
         <v>27</v>
       </c>
       <c r="D382" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E382" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B383" s="4" t="s">
         <v>7</v>
@@ -7337,15 +7358,15 @@
         <v>56</v>
       </c>
       <c r="D383" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E383" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B384" s="4" t="s">
         <v>7</v>
@@ -7354,15 +7375,15 @@
         <v>8</v>
       </c>
       <c r="D384" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B385" s="4" t="s">
         <v>7</v>
@@ -7371,15 +7392,15 @@
         <v>33</v>
       </c>
       <c r="D385" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E385" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B386" s="4" t="s">
         <v>7</v>
@@ -7388,7 +7409,7 @@
         <v>20</v>
       </c>
       <c r="D386" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E386" s="4" t="s">
         <v>21</v>
@@ -7397,9 +7418,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B387" s="4" t="s">
         <v>7</v>
@@ -7408,32 +7429,32 @@
         <v>42</v>
       </c>
       <c r="D387" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E387" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B388" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C388" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D388" s="4">
+        <v>1</v>
+      </c>
+      <c r="E388" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D388" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E388" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="389">
+    </row>
+    <row r="389" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B389" s="4" t="s">
         <v>7</v>
@@ -7442,15 +7463,15 @@
         <v>10</v>
       </c>
       <c r="D389" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="E389" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B390" s="4" t="s">
         <v>7</v>
@@ -7459,15 +7480,15 @@
         <v>60</v>
       </c>
       <c r="D390" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E390" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B391" s="4" t="s">
         <v>7</v>
@@ -7476,49 +7497,49 @@
         <v>29</v>
       </c>
       <c r="D391" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E391" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B392" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C392" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D392" s="4">
+        <v>3</v>
+      </c>
+      <c r="E392" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D392" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E392" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="393">
+    </row>
+    <row r="393" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B393" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C393" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D393" s="4">
+        <v>2</v>
+      </c>
+      <c r="E393" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D393" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E393" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="394">
+    </row>
+    <row r="394" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B394" s="4" t="s">
         <v>7</v>
@@ -7527,32 +7548,32 @@
         <v>35</v>
       </c>
       <c r="D394" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E394" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B395" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C395" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D395" s="4">
+        <v>3</v>
+      </c>
+      <c r="E395" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D395" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E395" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="396">
+    </row>
+    <row r="396" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B396" s="4" t="s">
         <v>7</v>
@@ -7561,32 +7582,32 @@
         <v>27</v>
       </c>
       <c r="D396" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E396" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B397" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C397" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D397" s="4">
+        <v>1</v>
+      </c>
+      <c r="E397" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D397" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E397" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="398">
+    </row>
+    <row r="398" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B398" s="4" t="s">
         <v>7</v>
@@ -7595,15 +7616,15 @@
         <v>25</v>
       </c>
       <c r="D398" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E398" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B399" s="4" t="s">
         <v>7</v>
@@ -7612,15 +7633,15 @@
         <v>46</v>
       </c>
       <c r="D399" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E399" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B400" s="4" t="s">
         <v>7</v>
@@ -7629,279 +7650,279 @@
         <v>37</v>
       </c>
       <c r="D400" s="4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="E400" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D401" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E401" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D402" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E402" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D403" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E403" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D404" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E404" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C405" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D405" s="4">
+        <v>1</v>
+      </c>
+      <c r="E405" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D405" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E405" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="406">
+    </row>
+    <row r="406" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D406" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E406" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D407" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D408" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E408" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D409" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E409" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D410" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E410" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D411" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E411" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D412" s="4">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="E412" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C413" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D413" s="4">
+        <v>49</v>
+      </c>
+      <c r="E413" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D413" s="4">
-        <v>49.0</v>
-      </c>
-      <c r="E413" s="4" t="s">
+    </row>
+    <row r="414" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A414" s="4">
+        <v>1</v>
+      </c>
+      <c r="B414" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B414" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="C414" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D414" s="4">
+        <v>1</v>
+      </c>
+      <c r="E414" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D414" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E414" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="415">
+    </row>
+    <row r="415" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C415" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D415" s="4">
+        <v>1</v>
+      </c>
+      <c r="E415" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D415" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E415" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="416">
+    </row>
+    <row r="416" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D416" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E416" s="4" t="s">
         <v>21</v>
@@ -7910,239 +7931,239 @@
         <v>22</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D417" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="E417" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D418" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E418" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D419" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="420">
+    <row r="420" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C420" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D420" s="4">
+        <v>1</v>
+      </c>
+      <c r="E420" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D420" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="E420" s="4" t="s">
+    </row>
+    <row r="421" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A421" s="4">
+        <v>1</v>
+      </c>
+      <c r="B421" s="4" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="B421" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D421" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E421" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D422" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E422" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D423" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E423" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D424" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E424" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D425" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E425" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D426" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E426" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D427" s="4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D428" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E428" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C429" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D429" s="4">
+        <v>2</v>
+      </c>
+      <c r="E429" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D429" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E429" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="430">
+    </row>
+    <row r="430" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D430" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E430" s="4" t="s">
         <v>21</v>
@@ -8151,59 +8172,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D431" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E431" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:7" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D432" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E432" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:5" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E433" s="4" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$433"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>